--- a/test/data/sample_results.xlsx
+++ b/test/data/sample_results.xlsx
@@ -476,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>47.759</v>
+        <v>11.429</v>
       </c>
       <c r="E2" t="n">
-        <v>18.326</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -496,13 +496,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>56.549</v>
+        <v>11.424</v>
       </c>
       <c r="E3" t="n">
-        <v>18.609</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>10.017</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +516,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>44.112</v>
+        <v>11.36</v>
       </c>
       <c r="E4" t="n">
-        <v>18.718</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -536,13 +536,13 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>30.447</v>
+        <v>11.418</v>
       </c>
       <c r="E5" t="n">
-        <v>17.904</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.867</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>18.982</v>
+        <v>2.236</v>
       </c>
       <c r="E6" t="n">
-        <v>16.673</v>
+        <v>5.542</v>
       </c>
       <c r="F6" t="n">
-        <v>4.067</v>
+        <v>4.667</v>
       </c>
     </row>
     <row r="7">
@@ -576,13 +576,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>10.359</v>
+        <v>32.656</v>
       </c>
       <c r="E7" t="n">
-        <v>15.158</v>
+        <v>29.383</v>
       </c>
       <c r="F7" t="n">
-        <v>4.19</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="8">
@@ -596,13 +596,13 @@
         <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>5.029</v>
+        <v>52.361</v>
       </c>
       <c r="E8" t="n">
-        <v>13.703</v>
+        <v>54.878</v>
       </c>
       <c r="F8" t="n">
-        <v>4.283</v>
+        <v>4.583</v>
       </c>
     </row>
     <row r="9">
@@ -616,13 +616,13 @@
         <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>2.236</v>
+        <v>33.347</v>
       </c>
       <c r="E9" t="n">
-        <v>12.482</v>
+        <v>73.331</v>
       </c>
       <c r="F9" t="n">
-        <v>4.381</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="10">
@@ -639,10 +639,10 @@
         <v>2.236</v>
       </c>
       <c r="E10" t="n">
-        <v>11.483</v>
+        <v>79.49299999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>4.467</v>
+        <v>5.117</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>2.236</v>
       </c>
       <c r="E11" t="n">
-        <v>10.652</v>
+        <v>69.581</v>
       </c>
       <c r="F11" t="n">
-        <v>4.55</v>
+        <v>4.791</v>
       </c>
     </row>
     <row r="12">
@@ -679,10 +679,10 @@
         <v>2.236</v>
       </c>
       <c r="E12" t="n">
-        <v>9.951000000000001</v>
+        <v>50.555</v>
       </c>
       <c r="F12" t="n">
-        <v>4.65</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +699,10 @@
         <v>2.236</v>
       </c>
       <c r="E13" t="n">
-        <v>9.308</v>
+        <v>32.874</v>
       </c>
       <c r="F13" t="n">
-        <v>4.733</v>
+        <v>3.433</v>
       </c>
     </row>
     <row r="14">
@@ -719,10 +719,10 @@
         <v>2.236</v>
       </c>
       <c r="E14" t="n">
-        <v>8.766</v>
+        <v>19.646</v>
       </c>
       <c r="F14" t="n">
-        <v>4.85</v>
+        <v>2.783</v>
       </c>
     </row>
     <row r="15">
@@ -739,10 +739,10 @@
         <v>2.236</v>
       </c>
       <c r="E15" t="n">
-        <v>8.004</v>
+        <v>10.614</v>
       </c>
       <c r="F15" t="n">
-        <v>4.9</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         <v>2.236</v>
       </c>
       <c r="E16" t="n">
-        <v>7.65</v>
+        <v>4.971</v>
       </c>
       <c r="F16" t="n">
-        <v>4.967</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="17">
@@ -779,10 +779,10 @@
         <v>2.236</v>
       </c>
       <c r="E17" t="n">
-        <v>7.292</v>
+        <v>1.823</v>
       </c>
       <c r="F17" t="n">
-        <v>5.033</v>
+        <v>1.133</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/sample_results.xlsx
+++ b/test/data/sample_results.xlsx
@@ -1,43 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+  <si>
+    <t>releaseAngle</t>
+  </si>
+  <si>
+    <t>lengthArmShort</t>
+  </si>
+  <si>
+    <t>massWeight</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -46,111 +84,111 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -174,80 +212,22 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -279,20 +259,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -304,7 +280,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -325,16 +301,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,23 +310,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -414,378 +379,1212 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>rel angle</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>length short arm</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>mass of wt</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>height</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="3">
         <v>10</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3">
         <v>0.25</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3">
         <v>11.429</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="4">
         <v>20</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="4">
         <v>0.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>11.424</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>10.017</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="4">
         <v>30</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="4">
         <v>0.75</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>11.36</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="4">
         <v>40</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>11.418</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="4">
         <v>50</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4">
         <v>1.25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>2.236</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>5.542</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>4.667</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="4">
         <v>60</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4">
         <v>1.5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>32.656</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>29.383</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="4">
         <v>70</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4">
         <v>1.75</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>35</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>52.361</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>54.878</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>4.583</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="4">
         <v>80</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>40</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>33.347</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>73.331</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>5.02</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="4">
         <v>90</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4">
         <v>2.25</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>45</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>2.236</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>79.49299999999999</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>5.117</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="4">
         <v>100</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4">
         <v>2.5</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>50</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>2.236</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>69.581</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>4.791</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" ht="13.55" customHeight="1">
+      <c r="A12" s="4">
         <v>110</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="4">
         <v>2.75</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>55</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>2.236</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4">
         <v>50.555</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>4.15</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" ht="13.55" customHeight="1">
+      <c r="A13" s="4">
         <v>120</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>60</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>2.236</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>32.874</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>3.433</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" ht="13.55" customHeight="1">
+      <c r="A14" s="4">
         <v>130</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="4">
         <v>3.25</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>65</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>2.236</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>19.646</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>2.783</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" ht="13.55" customHeight="1">
+      <c r="A15" s="4">
         <v>140</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="4">
         <v>3.5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>70</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>2.236</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>10.614</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>2.15</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" s="4">
         <v>150</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="4">
         <v>3.75</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>75</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>2.236</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>4.971</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>1.617</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" s="4">
         <v>160</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>80</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4">
         <v>2.236</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>1.823</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>1.133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>